--- a/KingSoft/Configurações/Relação de Programas/Geral.xlsx
+++ b/KingSoft/Configurações/Relação de Programas/Geral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valerio\Dropbox\documentacao\kingsoft\documentacao\KingErp\Relação de Programas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valerio\Documents\GitHub\desktop\KingSoft\Configurações\Relação de Programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>CADASTRO</t>
   </si>
@@ -50,67 +50,127 @@
     <t>-</t>
   </si>
   <si>
-    <t>MUDAR SUA SENHA</t>
-  </si>
-  <si>
     <t>SIM</t>
   </si>
   <si>
     <t>002</t>
   </si>
   <si>
-    <t>AUT_PER</t>
-  </si>
-  <si>
-    <t>PERFIS</t>
-  </si>
-  <si>
     <t>DESENV.</t>
   </si>
   <si>
     <t>003</t>
   </si>
   <si>
-    <t>AUT_USU</t>
-  </si>
-  <si>
-    <t>USUÁRIOS</t>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
-    <t>AUT_MOD</t>
-  </si>
-  <si>
-    <t>MÓDULOS</t>
-  </si>
-  <si>
     <t>005</t>
   </si>
   <si>
-    <t>AUT_PRO</t>
-  </si>
-  <si>
-    <t>PROGRAMAS</t>
-  </si>
-  <si>
-    <t>AUTORIZAÇÃO</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>AUT_APE</t>
-  </si>
-  <si>
-    <t>AUTORIZAÇÃO DE PERFIL</t>
-  </si>
-  <si>
-    <t>AUT_AUS</t>
-  </si>
-  <si>
-    <t>AUTORIZAÇÃO DE USUÁRIO</t>
+    <t>GER_PAI</t>
+  </si>
+  <si>
+    <t>GER_EST</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>GER_CID</t>
+  </si>
+  <si>
+    <t>CIDADE</t>
+  </si>
+  <si>
+    <t>GER_BAI</t>
+  </si>
+  <si>
+    <t>BAIRROS</t>
+  </si>
+  <si>
+    <t>PAÍSES</t>
+  </si>
+  <si>
+    <t>GER_TLG</t>
+  </si>
+  <si>
+    <t>GER_LOG</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>GER_EMP</t>
+  </si>
+  <si>
+    <t>EMPRESAS</t>
+  </si>
+  <si>
+    <t>TIPOS DE LOGRADOURO</t>
+  </si>
+  <si>
+    <t>LOGRADOUROS</t>
+  </si>
+  <si>
+    <t>GER_FEM</t>
+  </si>
+  <si>
+    <t>FONES DA EMPRESA</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>GER_TPP</t>
+  </si>
+  <si>
+    <t>TIPOS DE PESSOA</t>
+  </si>
+  <si>
+    <t>GER_PES</t>
+  </si>
+  <si>
+    <t>PESSOAS</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>GER_FPE</t>
+  </si>
+  <si>
+    <t>FONES DA PESSOA</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>GER_PXT</t>
+  </si>
+  <si>
+    <t>PESSOAS X TIPOS DE PESSOA</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>GER_FPG</t>
+  </si>
+  <si>
+    <t>FORMA DE PAGAMENTO</t>
   </si>
 </sst>
 </file>
@@ -280,6 +340,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,24 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,207 +680,388 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11"/>
       <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="G7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="34">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="C1:F1"/>
@@ -830,15 +1071,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
